--- a/Document/資料庫欄位.xlsx
+++ b/Document/資料庫欄位.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>縣市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +245,93 @@
   </si>
   <si>
     <t>認養 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rCounty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation_Adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rSaveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,11 +714,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,37 +739,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,21 +793,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,11 +802,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,826 +1147,1060 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="45.75" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="25.75" customWidth="1"/>
-    <col min="13" max="13" width="30.75" customWidth="1"/>
-    <col min="14" max="14" width="45.75" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="45.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="45.77734375" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" customWidth="1"/>
+    <col min="16" max="16" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="27" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="G3" s="38" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="2:15" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="2:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="M6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="N13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="21" t="s">
+    </row>
+    <row r="14" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="21" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O21" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="22" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="4" t="s">
+      <c r="M22" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="4" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="M30" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="27" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="21" t="s">
+      <c r="J37" s="14"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="I39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="J39" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="4" t="s">
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+    </row>
+    <row r="41" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="G21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="1"/>
-      <c r="G22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
-      <c r="C25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="22"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-    </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="F42" s="1"/>
-      <c r="G42" s="4" t="s">
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F43" s="1"/>
-      <c r="G43" s="5" t="s">
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="H38:J38"/>
@@ -1862,14 +2209,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/資料庫欄位.xlsx
+++ b/Document/資料庫欄位.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,199 +64,331 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>聯絡人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡人性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡人電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾獲寵物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾獲日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾獲地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物特徵備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱（帳號）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的關注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄信者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋寵 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾獲 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認養 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HairColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>遺失地點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聯絡人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡人性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡人電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾獲寵物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾獲日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾獲地點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寵物特徵備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱（帳號）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的關注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關注類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null (Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄信者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主旨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關注消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>縣市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋寵 - 經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾獲 - 經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認養 - 經緯度</t>
+    <t>地點ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceId</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactMan</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -604,8 +736,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -615,15 +749,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -631,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -660,7 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,8 +837,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -689,6 +845,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,21 +878,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,12 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,10 +979,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,7 +1013,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1031,14 +1188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
@@ -1057,87 +1214,93 @@
     <col min="16" max="16" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" ht="21">
       <c r="B2" s="6"/>
-      <c r="C2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="M2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="2:15" ht="21">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
-      <c r="G3" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="L3" s="38" t="s">
-        <v>50</v>
+      <c r="G3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="31"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="2:15" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="20.25">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>39</v>
+      <c r="J4" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="21" t="s">
+      <c r="M4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="O4" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="21">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1152,78 +1315,102 @@
       <c r="N5" s="13"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="21">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="21">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="21.75" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
       <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="21">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1231,15 +1418,21 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="21.75" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1247,85 +1440,109 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="21">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="M11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="2:15" ht="21">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="38" t="s">
-        <v>54</v>
+      <c r="L12" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="21">
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="21.75" thickBot="1">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4" t="s">
@@ -1335,98 +1552,134 @@
       <c r="N14" s="13"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="21">
       <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" ht="21.75" thickBot="1">
       <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="15" t="s">
+    <row r="17" spans="2:15" ht="21">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="21.75" thickBot="1">
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" ht="21">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>39</v>
+      <c r="J19" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+      <c r="M19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="2:15" ht="21">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1434,36 +1687,48 @@
       <c r="I20" s="13"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="38" t="s">
-        <v>57</v>
+      <c r="L20" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="21.75" thickBot="1">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="21" t="s">
+      <c r="M21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="21">
       <c r="F22" s="1"/>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1476,153 +1741,171 @@
       <c r="N22" s="13"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+    <row r="23" spans="2:15" ht="21.75" thickBot="1">
       <c r="G23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+    <row r="24" spans="2:15" ht="21.75" thickBot="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
-      <c r="C25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>39</v>
-      </c>
+    <row r="25" spans="2:15" ht="21.75" thickBot="1">
+      <c r="B25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="G25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:15" ht="21" thickBot="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" ht="21.75" thickBot="1">
+      <c r="B27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="22"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-    </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="M27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="2:15" ht="21">
       <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="15"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="38" t="s">
-        <v>58</v>
+      <c r="L28" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="31"/>
       <c r="O28" s="32"/>
     </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="21">
       <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="38" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
       <c r="J29" s="32"/>
       <c r="K29" s="1"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="21" t="s">
+      <c r="M29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="O29" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="21">
       <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="21" t="s">
+      <c r="H30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>39</v>
+      <c r="J30" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="4" t="s">
@@ -1632,13 +1915,19 @@
       <c r="N30" s="13"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="21">
       <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
         <v>2</v>
@@ -1648,44 +1937,56 @@
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="21.75" thickBot="1">
       <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="21">
       <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -1694,105 +1995,147 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" ht="21.75" thickBot="1">
       <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="21">
       <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="21.75" thickBot="1">
       <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="21">
       <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="16"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="15"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
+    <row r="38" spans="2:13" ht="21">
+      <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="38" t="s">
-        <v>47</v>
+      <c r="G38" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="21">
       <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="21" t="s">
+      <c r="H39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2"/>
+      <c r="J39" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="21">
+      <c r="B40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="4" t="s">
         <v>2</v>
@@ -1801,67 +2144,89 @@
       <c r="I40" s="13"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="3"/>
+    <row r="41" spans="2:13" ht="21">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="21">
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" ht="21.75" thickBot="1">
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6">
       <c r="F49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M2:O2"/>
@@ -1870,6 +2235,14 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/資料庫欄位.xlsx
+++ b/Document/資料庫欄位.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
@@ -387,8 +387,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -854,6 +854,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,15 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,9 +979,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,6 +1014,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,60 +1190,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="45.75" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="25.75" customWidth="1"/>
-    <col min="13" max="13" width="30.75" customWidth="1"/>
-    <col min="14" max="14" width="45.75" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="45.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="45.77734375" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" customWidth="1"/>
+    <col min="16" max="16" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:15" ht="21">
+    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="2:15" ht="21">
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="G3" s="25" t="s">
         <v>23</v>
       </c>
@@ -1251,11 +1253,11 @@
       <c r="L3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="2:15" ht="20.25">
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="2:15" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>16</v>
@@ -1288,7 +1290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="21">
+    <row r="5" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1311,11 +1313,13 @@
       <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="13">
+        <v>111</v>
+      </c>
       <c r="N5" s="13"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:15" ht="21">
+    <row r="6" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1346,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:15" ht="21">
+    <row r="7" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1373,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="21.75" thickBot="1">
+    <row r="8" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1400,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="21">
+    <row r="9" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1422,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="21.75" thickBot="1">
+    <row r="10" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="21">
+    <row r="11" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1461,13 +1465,13 @@
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="2:15" ht="21">
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1490,11 +1494,11 @@
       <c r="L12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="2:15" ht="21">
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="21.75" thickBot="1">
+    <row r="14" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1556,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21">
+    <row r="15" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21.75" thickBot="1">
+    <row r="16" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1594,7 +1598,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="21">
+    <row r="17" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1619,7 @@
       <c r="J17" s="15"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:15" ht="21.75" thickBot="1">
+    <row r="18" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1640,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:15" ht="21">
+    <row r="19" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1661,13 +1665,13 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="2:15" ht="21">
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1690,11 +1694,11 @@
       <c r="L20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="2:15" ht="21.75" thickBot="1">
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="21">
+    <row r="22" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="F22" s="1"/>
       <c r="G22" s="4" t="s">
         <v>42</v>
@@ -1741,7 +1745,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21.75" thickBot="1">
+    <row r="23" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1756,13 +1760,13 @@
       <c r="N23" s="13"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21.75" thickBot="1">
+    <row r="24" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
       <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1777,13 +1781,13 @@
       <c r="N24" s="19"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" ht="21.75" thickBot="1">
+    <row r="25" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="G25" s="5" t="s">
         <v>45</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:15" ht="21" thickBot="1">
+    <row r="26" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="20" t="s">
         <v>16</v>
@@ -1805,7 +1809,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:15" ht="21.75" thickBot="1">
+    <row r="27" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="21" t="s">
         <v>2</v>
       </c>
@@ -1820,13 +1824,13 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-    </row>
-    <row r="28" spans="2:15" ht="21">
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
@@ -1849,11 +1853,11 @@
       <c r="L28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="2:15" ht="21">
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
@@ -1869,9 +1873,9 @@
       <c r="G29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="1"/>
       <c r="L29" s="7"/>
       <c r="M29" s="20" t="s">
@@ -1884,7 +1888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="21">
+    <row r="30" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1919,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:15" ht="21">
+    <row r="31" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +1947,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="2:15" ht="21.75" thickBot="1">
+    <row r="32" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1975,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:13" ht="21">
+    <row r="33" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +1999,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="21.75" thickBot="1">
+    <row r="34" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="21">
+    <row r="35" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2041,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="21.75" thickBot="1">
+    <row r="36" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
@@ -2054,7 +2058,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="21">
+    <row r="37" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
@@ -2077,7 +2081,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="21">
+    <row r="38" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
         <v>71</v>
       </c>
@@ -2094,11 +2098,11 @@
       <c r="G38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="2:13" ht="21">
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="21">
+    <row r="40" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2148,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="21">
+    <row r="41" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2169,7 @@
       <c r="I41" s="13"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="21">
+    <row r="42" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="21.75" thickBot="1">
+    <row r="43" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
@@ -2207,26 +2211,34 @@
       <c r="I43" s="19"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M2:O2"/>
@@ -2235,14 +2247,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/資料庫欄位.xlsx
+++ b/Document/資料庫欄位.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
   <si>
     <t>型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,127 +212,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>縣市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HairColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺失地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地點ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceId</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactMan</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rCounty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>區域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>路名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>尋寵 - 經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>單子ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rSaveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>拾獲 - 經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rSaveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
     <t>認養 - 經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetPhoto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HairColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遺失地點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地點ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceId</t>
-  </si>
-  <si>
-    <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactMan</t>
-  </si>
-  <si>
-    <t>ContactSex</t>
-  </si>
-  <si>
-    <t>ContactSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LostDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LostPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int identity</t>
+    <t>rLocation_Adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,47 +519,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -854,6 +993,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,21 +1017,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,6 +1025,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,7 +1357,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1219,31 +1382,31 @@
     <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="G3" s="25" t="s">
         <v>23</v>
       </c>
@@ -1251,11 +1414,13 @@
       <c r="I3" s="39"/>
       <c r="J3" s="40"/>
       <c r="L3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+        <v>88</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="2:15" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1284,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O4" s="23" t="s">
         <v>38</v>
@@ -1295,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -1311,26 +1476,30 @@
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
       <c r="L5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="13">
-        <v>111</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>24</v>
@@ -1340,24 +1509,30 @@
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -1367,24 +1542,30 @@
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -1394,24 +1575,30 @@
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
       <c r="L8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>27</v>
@@ -1420,20 +1607,23 @@
       <c r="I9" s="13"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
@@ -1442,20 +1632,23 @@
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>29</v>
@@ -1464,25 +1657,25 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
     </row>
     <row r="12" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -1492,24 +1685,24 @@
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
     </row>
     <row r="13" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1520,13 +1713,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="7"/>
       <c r="M13" s="20" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1534,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
@@ -1550,66 +1743,84 @@
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="22"/>
@@ -1618,19 +1829,23 @@
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>40</v>
@@ -1639,19 +1854,23 @@
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="20" t="s">
@@ -1664,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>2</v>
@@ -1692,24 +1911,24 @@
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
     </row>
     <row r="21" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>41</v>
@@ -1720,13 +1939,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="7"/>
       <c r="M21" s="20" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
@@ -1739,11 +1958,17 @@
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G23" s="4" t="s">
@@ -1754,19 +1979,25 @@
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1775,19 +2006,25 @@
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="45" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="G25" s="5" t="s">
         <v>45</v>
       </c>
@@ -1795,6 +2032,10 @@
       <c r="I25" s="19"/>
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
@@ -1808,40 +2049,44 @@
         <v>38</v>
       </c>
       <c r="K26" s="1"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
     </row>
     <row r="27" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
@@ -1851,38 +2096,40 @@
       <c r="J28" s="15"/>
       <c r="K28" s="1"/>
       <c r="L28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="1"/>
       <c r="L29" s="7"/>
       <c r="M29" s="20" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O29" s="23" t="s">
         <v>38</v>
@@ -1893,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="20" t="s">
@@ -1913,24 +2160,30 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
@@ -1941,24 +2194,30 @@
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
@@ -1969,24 +2228,30 @@
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="4" t="s">
@@ -2004,13 +2269,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="5" t="s">
@@ -2028,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1"/>
       <c r="K35" s="1"/>
@@ -2046,13 +2311,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
@@ -2063,13 +2328,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="24"/>
@@ -2083,37 +2348,37 @@
     </row>
     <row r="38" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="7"/>
@@ -2132,13 +2397,13 @@
         <v>18</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="4" t="s">
@@ -2153,13 +2418,13 @@
         <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4" t="s">
@@ -2174,13 +2439,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4" t="s">
@@ -2195,13 +2460,13 @@
         <v>14</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
@@ -2231,6 +2496,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="H38:J38"/>
@@ -2239,14 +2512,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/資料庫欄位.xlsx
+++ b/Document/資料庫欄位.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t>型態</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,239 +116,462 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱（帳號）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的關注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地區ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄信者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關注消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HairColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺失地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地點ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceId</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactMan</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+  </si>
+  <si>
+    <t>ContactSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LostPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rCounty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋寵 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rSaveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾獲 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null (Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rSaveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>認養 - 經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rLocation_Adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserFirstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱（帳號）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的關注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地區ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關注類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null (Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄信者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主旨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關注消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>縣市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetPhoto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HairColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遺失地點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地點ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceId</t>
-  </si>
-  <si>
-    <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactMan</t>
-  </si>
-  <si>
-    <t>ContactSex</t>
-  </si>
-  <si>
-    <t>ContactSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LostDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LostPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserGender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,primary key Identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(10)</t>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,178 +579,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rCounty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋寵 - 經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null (Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rSaveID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rLocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾獲 - 經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null (Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rSaveID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rLocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>認養 - 經緯度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rLocation_Adopt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經緯度</t>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -993,30 +1073,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,30 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,10 +1222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,7 +1256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1353,85 +1431,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="4" width="45.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" customWidth="1"/>
-    <col min="9" max="9" width="45.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
-    <col min="13" max="13" width="30.77734375" customWidth="1"/>
-    <col min="14" max="14" width="45.77734375" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" customWidth="1"/>
-    <col min="16" max="16" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="4" width="45.75" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="45.75" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="13" max="13" width="30.75" customWidth="1"/>
+    <col min="14" max="14" width="45.75" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" ht="21">
       <c r="B2" s="6"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="2:15" ht="21">
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="G3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="L3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="2:15" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" ht="20.25">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="20" t="s">
@@ -1441,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="7"/>
@@ -1449,378 +1527,438 @@
         <v>16</v>
       </c>
       <c r="N4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:15" ht="21">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="O5" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="21">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="2"/>
+      <c r="H6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:15" ht="21">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="N7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O7" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="21.75" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="N8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="O8" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="21">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-    </row>
-    <row r="10" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" ht="21.75" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-    </row>
-    <row r="11" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="2:15" ht="21">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="2:15" ht="21">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" spans="2:15" ht="21">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="7"/>
       <c r="M13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="O13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="2:15" ht="21.75" thickBot="1">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N14" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="O14" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="21">
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="N15" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O15" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="21.75" thickBot="1">
       <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="N16" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="O16" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:15" ht="21">
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="22"/>
@@ -1829,48 +1967,48 @@
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-    </row>
-    <row r="18" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="2:15" ht="21.75" thickBot="1">
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-    </row>
-    <row r="19" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="2:15" ht="21">
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="20" t="s">
@@ -1880,28 +2018,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="L19" s="30"/>
+      <c r="M19" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="2:15" ht="21">
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>2</v>
@@ -1911,27 +2049,27 @@
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+    </row>
+    <row r="21" spans="2:15" ht="21.75" thickBot="1">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -1939,105 +2077,105 @@
       <c r="K21" s="1"/>
       <c r="L21" s="7"/>
       <c r="M21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="O21" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="21">
       <c r="F22" s="1"/>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="M22" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O22" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="21.75" thickBot="1">
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="2:15" ht="21.75" thickBot="1">
       <c r="B24" s="6"/>
-      <c r="C24" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="G24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O24" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="21.75" thickBot="1">
       <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="G25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-    </row>
-    <row r="26" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+    </row>
+    <row r="26" spans="2:15" ht="21" thickBot="1">
       <c r="B26" s="7"/>
       <c r="C26" s="20" t="s">
         <v>16</v>
@@ -2046,47 +2184,47 @@
         <v>0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-    </row>
-    <row r="27" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="2:15" ht="21.75" thickBot="1">
       <c r="B27" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-    </row>
-    <row r="28" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="L27" s="30"/>
+      <c r="M27" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="2:15" ht="21">
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
@@ -2096,57 +2234,57 @@
       <c r="J28" s="15"/>
       <c r="K28" s="1"/>
       <c r="L28" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
+    </row>
+    <row r="29" spans="2:15" ht="21">
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="1"/>
       <c r="L29" s="7"/>
       <c r="M29" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="21">
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="20" t="s">
@@ -2156,34 +2294,34 @@
         <v>0</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="N30" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="O30" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="22.2" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="21">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
@@ -2194,68 +2332,68 @@
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="O31" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="21.75" thickBot="1">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M32" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="O32" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="21">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -2264,22 +2402,22 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" ht="21.75" thickBot="1">
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2288,53 +2426,53 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="21">
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" ht="21.75" thickBot="1">
       <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="21">
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="24"/>
@@ -2346,39 +2484,39 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="21">
       <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="2:13" ht="21">
       <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="7"/>
@@ -2389,21 +2527,21 @@
         <v>0</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="21">
       <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="4" t="s">
@@ -2413,89 +2551,97 @@
       <c r="I40" s="13"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="21">
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="22.2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="21">
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" ht="21.75" thickBot="1">
       <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6">
       <c r="F49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M2:O2"/>
@@ -2504,14 +2650,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
